--- a/biology/Botanique/Charme-houblon/Charme-houblon.xlsx
+++ b/biology/Botanique/Charme-houblon/Charme-houblon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ostrya carpinifolia
 Le charme-houblon, Ostrya carpinifolia, ou ostryer à feuilles de charme, parfois aussi appelé bois-de-fer, est un arbre indigène des montagnes d'Europe centrale et méditerranéenne, de la famille des Betulaceae, comme le charme.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le charme-houblon, ou ostrier (Ostrya carpinifolia), dépasse rarement les 15 mètres de hauteur. Il s'apparente au charme commun (Carpinus betulus) par la forme de ses feuilles, mais il s'en distingue par un tronc crevassé et par les fruits, qui ressemblent à ceux du houblon (d'où son nom).
 Comme chez les autres Betulaceae, les fleurs mâles sont rassemblées sous forme de chatons. Elles apparaissent en avril ou mai. L'infrutescence ressemble à un petit cône où chaque graine semble enfermée dans un petit sachet. La dissémination est assurée par le vent.
@@ -552,7 +566,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le charme-houblon pousse entre 300 et 1 000 m d'altitude, de préférence en ubac (versant exposé au nord). On le trouve aussi parfois en adret (versant exposé au sud) à condition de bénéficier d'une bonne humidité atmosphérique.
 Cet arbre est présent au sud de l'Europe, depuis les bords de la Méditerranée orientale jusqu'au sud de la Suisse, de l'Autriche et, à l'est, jusqu'en Bulgarie. Sa tolérance relative à la sécheresse explique sa présence dans une grande partie du bassin méditerranéen (du sud-est de la France au Liban). La limite occidentale de son aire de répartition géographique se situe en Ligurie et dans le comté de Nice. En France, il ne pousse spontanément qu'en Corse orientale et dans les Alpes Maritimes.
